--- a/data/income_statement/2digits/size/08_IS_LARGE.xlsx
+++ b/data/income_statement/2digits/size/08_IS_LARGE.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>08-Other mining and quarrying</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>08-Other mining and quarrying</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,878 +841,993 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>1305298.47328</v>
+        <v>1129191.08479</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>1925660.14905</v>
+        <v>1680342.14627</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>2872006.50985</v>
+        <v>2583361.16294</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>3361678.047569999</v>
+        <v>3039344.03201</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>3359977.82204</v>
+        <v>2838749.55672</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>3598029.09705</v>
+        <v>2970785.83371</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>4606201.17176</v>
+        <v>4212278.22149</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>5670109.52031</v>
+        <v>4789875.888110001</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>8241639.043789999</v>
+        <v>7098553.126959999</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>6323979.148920001</v>
+        <v>5523108.41011</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>6605258.78833</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>5613494.13699</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>6958918.897</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>913121.82479</v>
+        <v>762420.8031</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>1291458.092</v>
+        <v>1101277.24671</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>1897373.0027</v>
+        <v>1686243.73159</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>2375204.78956</v>
+        <v>2090010.74109</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>2312479.3841</v>
+        <v>1906730.5862</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>2426863.16913</v>
+        <v>1976893.59849</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>3270151.51492</v>
+        <v>2999209.62196</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>4011194.33391</v>
+        <v>3391731.50063</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>5793670.18913</v>
+        <v>4902380.974230001</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>3925880.6546</v>
+        <v>3394101.31366</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>4181486.97447</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>3324492.26516</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>4216295.056</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>378475.13201</v>
+        <v>356656.1813300001</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>599493.0139400001</v>
+        <v>546235.5774500001</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>933038.2726799999</v>
+        <v>858520.5122999999</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>927908.0053300001</v>
+        <v>895879.0781800001</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>988278.3349400001</v>
+        <v>882260.5970999999</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>1094114.97003</v>
+        <v>952251.7318300001</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>1226556.92069</v>
+        <v>1120759.83915</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>1508637.85762</v>
+        <v>1287237.32791</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>2234087.28372</v>
+        <v>2046313.72967</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>2315609.35215</v>
+        <v>2079036.51207</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>2340467.9621</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>2239258.38197</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>2660687.473</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>13701.51648</v>
+        <v>10114.10036</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>34709.04311</v>
+        <v>32829.32211</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>41595.23447</v>
+        <v>38596.91905</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>58565.25268000001</v>
+        <v>53454.21274</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>59220.103</v>
+        <v>49758.37342</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>77050.95789000001</v>
+        <v>41640.50339</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>109492.73615</v>
+        <v>92308.76037999999</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>150277.32878</v>
+        <v>110907.05957</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>213881.57094</v>
+        <v>149858.42306</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>82489.14217000001</v>
+        <v>49970.58437999999</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>83303.85176000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>49743.48986</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>81936.368</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>35016.50618</v>
+        <v>25303.62054</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>63271.9589</v>
+        <v>51056.59499000001</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>65159.7987</v>
+        <v>53530.21577</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>57006.02954</v>
+        <v>44724.60422</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>84600.78745</v>
+        <v>62879.47688</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>91407.80834</v>
+        <v>61535.60108</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>82461.50783</v>
+        <v>89001.44128999999</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>112168.17102</v>
+        <v>99946.53326000001</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>141723.18089</v>
+        <v>134710.34407</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>123138.70472</v>
+        <v>117948.38507</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>103800.37419</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>98197.79778000001</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>139006.55</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>10294.13077</v>
+        <v>8357.97812</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>9388.037249999999</v>
+        <v>7564.02775</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>10195.30072</v>
+        <v>9877.115019999999</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>13784.89095</v>
+        <v>12751.62381</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>19450.19602</v>
+        <v>16091.51172</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>20658.08402</v>
+        <v>28154.78668</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>21382.45853</v>
+        <v>27937.79209</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>53225.03332</v>
+        <v>42334.10275</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>62591.72124</v>
+        <v>57845.4225</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>30831.37538</v>
+        <v>27142.07485</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>33070.81542</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>29768.67931</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>74147.23699999999</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>3980.94084</v>
+        <v>2118.88705</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>6174.10329</v>
+        <v>5567.518359999999</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>3791.56069</v>
+        <v>3519.8609</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>10574.95813</v>
+        <v>9469.343429999999</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>12903.72023</v>
+        <v>11452.98422</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>13860.2548</v>
+        <v>3873.4462</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>11496.21822</v>
+        <v>11519.59776</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>15269.29127</v>
+        <v>14016.06122</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>17074.30506</v>
+        <v>15058.02006</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>21329.67541</v>
+        <v>20783.99971</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>28253.23519</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>28134.97089</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>20312.206</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>20741.43457</v>
+        <v>14826.75537</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>47709.81836</v>
+        <v>37925.04888</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>51172.93729</v>
+        <v>40133.23985</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>32646.18046</v>
+        <v>22503.63698</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>52246.8712</v>
+        <v>35334.98093999999</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>56889.46952</v>
+        <v>29507.3682</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>49582.83108</v>
+        <v>49544.05144</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>43673.84643</v>
+        <v>43596.36929</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>62057.15459000001</v>
+        <v>61806.90151</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>70977.65393</v>
+        <v>70022.31051</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>42476.32358</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>40294.14758</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>44547.107</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>1270281.9671</v>
+        <v>1103887.46425</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>1862388.19015</v>
+        <v>1629285.55128</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>2806846.71115</v>
+        <v>2529830.94717</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>3304672.01803</v>
+        <v>2994619.42779</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>3275377.03459</v>
+        <v>2775870.07984</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>3506621.28871</v>
+        <v>2909250.23263</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>4523739.663930001</v>
+        <v>4123276.7802</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>5557941.34929</v>
+        <v>4689929.354850001</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>8099915.8629</v>
+        <v>6963842.78289</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>6200840.4442</v>
+        <v>5405160.02504</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>6501458.41414</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>5515296.33921</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>6819912.347</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>945876.38171</v>
+        <v>850583.9603399999</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>1341565.78831</v>
+        <v>1178217.74411</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>1962015.91603</v>
+        <v>1755467.94897</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>2510787.83149</v>
+        <v>2290941.85841</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>2291645.90847</v>
+        <v>1960914.26939</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>2551963.71047</v>
+        <v>2106577.65041</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>3331139.9636</v>
+        <v>3025460.79616</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>3953421.25967</v>
+        <v>3365589.01386</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>5643895.18557</v>
+        <v>4768896.11271</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>4104860.83233</v>
+        <v>3627856.29913</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>4281880.12055</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>3682731.03912</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>4441544.868</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>703060.41711</v>
+        <v>624457.0173899999</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>1024851.71634</v>
+        <v>881558.6514</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>1336563.88822</v>
+        <v>1201802.07017</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>1775115.4665</v>
+        <v>1652627.19921</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>1785506.22215</v>
+        <v>1508661.21917</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>2012332.83811</v>
+        <v>1664529.01048</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>2462317.74385</v>
+        <v>2239094.50458</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>2938936.09907</v>
+        <v>2474395.43289</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>4180421.06062</v>
+        <v>3579084.26733</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>3404024.21008</v>
+        <v>3080831.4626</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>3636952.57991</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>3215363.32894</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>3110205.41</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>98576.90603999999</v>
+        <v>89032.35309</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>158765.67382</v>
+        <v>155873.31328</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>243129.41449</v>
+        <v>190951.31608</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>248007.56448</v>
+        <v>239515.2237</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>206944.54608</v>
+        <v>181711.74151</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>214474.03127</v>
+        <v>210358.97452</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>351772.22871</v>
+        <v>353761.22461</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>433529.88257</v>
+        <v>368526.65379</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>692112.11993</v>
+        <v>574875.06343</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>319432.69931</v>
+        <v>290568.62229</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>341474.31114</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>296659.16701</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>455803.448</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>123480.55572</v>
+        <v>117959.16678</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>134054.34348</v>
+        <v>116891.72476</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>348701.38323</v>
+        <v>329882.71766</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>431092.40241</v>
+        <v>342227.0374</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>270766.90045</v>
+        <v>245491.88839</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>302847.81235</v>
+        <v>218177.56936</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>471522.02472</v>
+        <v>390518.6151</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>514509.97277</v>
+        <v>458259.73039</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>662986.29738</v>
+        <v>521143.82404</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>303232.79715</v>
+        <v>226092.21515</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>272862.3484</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>160647.11712</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>816754.578</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>20758.50284</v>
+        <v>19135.42308</v>
       </c>
       <c r="D18" s="48" t="n">
         <v>23894.05467</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>33621.23009</v>
+        <v>32831.84506</v>
       </c>
       <c r="F18" s="48" t="n">
         <v>56572.3981</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>28428.23979</v>
+        <v>25049.42032</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>22309.02874</v>
+        <v>13512.09605</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>45527.96631999999</v>
+        <v>42086.45187</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>66445.30525999999</v>
+        <v>64407.19679</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>108375.70764</v>
+        <v>93792.95791000001</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>78171.12579000001</v>
+        <v>30363.99909</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>30590.8811</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>10061.42605</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>58781.432</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>324405.58539</v>
+        <v>253303.50391</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>520822.40184</v>
+        <v>451067.80717</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>844830.79512</v>
+        <v>774362.9982</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>793884.1865399999</v>
+        <v>703677.56938</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>983731.1261200001</v>
+        <v>814955.81045</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>954657.5782400001</v>
+        <v>802672.58222</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>1192599.70033</v>
+        <v>1097815.98404</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>1604520.08962</v>
+        <v>1324340.34099</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>2456020.67733</v>
+        <v>2194946.67018</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>2095979.61187</v>
+        <v>1777303.72591</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>2219578.29359</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1832565.30009</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>2378367.479</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>184701.13356</v>
+        <v>144989.76022</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>339074.53827</v>
+        <v>293412.88536</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>473589.2452899999</v>
+        <v>406255.99081</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>529801.79101</v>
+        <v>474463.33102</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>543481.43888</v>
+        <v>440844.45761</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>631651.83806</v>
+        <v>530745.1879499999</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>739442.53547</v>
+        <v>727953.2298099999</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>974414.71776</v>
+        <v>794775.8524300001</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>1092126.79013</v>
+        <v>924230.8398199999</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>759125.1963</v>
+        <v>666022.75958</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>941707.1362300001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>791701.3033499999</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>942817.189</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>6424.61849</v>
+        <v>5483.55916</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>16703.2788</v>
+        <v>6417.26084</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>33663.33558</v>
+        <v>8566.31502</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>24977.54165</v>
+        <v>17044.04796</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>9672.59051</v>
+        <v>8507.899810000001</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>9026.12653</v>
+        <v>7806.13449</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>9395.71067</v>
+        <v>9146.702019999999</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>9073.55998</v>
+        <v>8316.19578</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>11496.23564</v>
+        <v>11240.14823</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>16337.98752</v>
+        <v>16324.9887</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>17661.82721</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>17643.03102</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>55866.118</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>88817.16522</v>
+        <v>75704.28598</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>198782.24104</v>
+        <v>183438.0604</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>263856.16027</v>
+        <v>247881.10794</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>279310.1160399999</v>
+        <v>263307.89709</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>265628.6993</v>
+        <v>228375.38918</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>275588.65605</v>
+        <v>225187.33613</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>353251.92956</v>
+        <v>310466.89814</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>434522.2883300001</v>
+        <v>357533.72879</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>639755.97979</v>
+        <v>579207.39838</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>436412.1917</v>
+        <v>397050.72637</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>487835.56958</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>448748.39965</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>512221.562</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>89459.34985000001</v>
+        <v>63801.91508</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>123589.01843</v>
+        <v>103557.56412</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>176069.74944</v>
+        <v>149808.56785</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>225514.13332</v>
+        <v>194111.38597</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>268180.14907</v>
+        <v>203961.16862</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>347037.05548</v>
+        <v>297751.71733</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>376794.89524</v>
+        <v>408339.62965</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>530818.86945</v>
+        <v>428925.92786</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>440874.5747000001</v>
+        <v>333783.29321</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>306375.01708</v>
+        <v>252647.04451</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>436209.73944</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>325309.87268</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>374729.509</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>139704.45183</v>
+        <v>108313.74369</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>181747.86357</v>
+        <v>157654.92181</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>371241.54983</v>
+        <v>368107.00739</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>264082.39553</v>
+        <v>229214.23836</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>440249.68724</v>
+        <v>374111.3528399999</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>323005.74018</v>
+        <v>271927.39427</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>453157.16486</v>
+        <v>369862.75423</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>630105.3718600001</v>
+        <v>529564.48856</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>1363893.8872</v>
+        <v>1270715.83036</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>1336854.41557</v>
+        <v>1111280.96633</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>1277871.15736</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1040863.99674</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>1435550.29</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>132583.26471</v>
+        <v>71556.69607999999</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>150854.11059</v>
+        <v>131891.2576</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>248576.49812</v>
+        <v>197149.01029</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>279542.34152</v>
+        <v>232539.96105</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>316717.65311</v>
+        <v>170623.45575</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>528009.7663400001</v>
+        <v>433046.03588</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>1498626.2548</v>
+        <v>1368630.49389</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>578575.3325</v>
+        <v>397804.89661</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>741915.5378800001</v>
+        <v>602443.50426</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>1158238.58744</v>
+        <v>823294.78601</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>692665.50271</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>498354.31854</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>891263.911</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>6575.72465</v>
+        <v>6571.97465</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>585.4556</v>
+        <v>568.40004</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>3261.26761</v>
+        <v>1212.1542</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>16454.12063</v>
+        <v>1093.78286</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>53490.78262999999</v>
+        <v>463.57741</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>58339.161</v>
+        <v>1023.31723</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>4608.04272</v>
+        <v>1254.71358</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>1709.23016</v>
+        <v>771.97974</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>8427.872359999999</v>
+        <v>1255.0171</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>2154.65366</v>
+        <v>1344.64601</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>5156.91758</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>647</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>18273.693</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
-        <v>31901.83458</v>
+        <v>1025.09683</v>
       </c>
       <c r="D27" s="48" t="n">
-        <v>33.40008</v>
+        <v>3.09983</v>
       </c>
       <c r="E27" s="48" t="n">
         <v>437.88432</v>
@@ -1820,7 +1836,7 @@
         <v>624.38911</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>1524.49127</v>
+        <v>0</v>
       </c>
       <c r="H27" s="48" t="n">
         <v>3873.77903</v>
@@ -1829,64 +1845,74 @@
         <v>6.46602</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>1298.51509</v>
+        <v>1298.25851</v>
       </c>
       <c r="K27" s="48" t="n">
         <v>46344.25134999999</v>
       </c>
       <c r="L27" s="48" t="n">
-        <v>13893.26085</v>
+        <v>13139.26085</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>31137.93751</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>11137.93751</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>14018.38362</v>
+        <v>8312.783089999999</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>16918.19734</v>
+        <v>13568.02427</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>30133.64917</v>
+        <v>26363.28012</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>50369.67965</v>
+        <v>45079.54104</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>44343.75936</v>
+        <v>36779.50907</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>47458.11307</v>
+        <v>31746.20455</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>46965.33106</v>
+        <v>45556.2015</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>76559.29854</v>
+        <v>63831.60367999999</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>94365.82553999999</v>
+        <v>86224.17174999999</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>154395.95911</v>
+        <v>109958.73245</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>174724.26128</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>108782.68964</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>118959.708</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>635.78788</v>
+        <v>605.5528</v>
       </c>
       <c r="D29" s="48" t="n">
         <v>781.61313</v>
@@ -1895,19 +1921,19 @@
         <v>1262.04939</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>1592.38971</v>
+        <v>1410.61132</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>1205.76706</v>
+        <v>1090.74206</v>
       </c>
       <c r="H29" s="48" t="n">
         <v>655.3200000000001</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>1302.71083</v>
+        <v>442.71083</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>7764.20205</v>
+        <v>7754.98021</v>
       </c>
       <c r="K29" s="48" t="n">
         <v>641.84328</v>
@@ -1918,131 +1944,151 @@
       <c r="M29" s="48" t="n">
         <v>4097.20806</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>619.828</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>1050.89953</v>
+        <v>1023.88249</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>1367.31246</v>
+        <v>1301.30666</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>1109.64632</v>
+        <v>941.3727299999999</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>1677.55209</v>
+        <v>1587.47974</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>29627.24113</v>
+        <v>2326.07304</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>2970.30702</v>
+        <v>1513.57115</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>3088.09393</v>
+        <v>3016.39623</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>30395.36572</v>
+        <v>1960.4919</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>42628.6045</v>
+        <v>15060.38821</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>2332.76527</v>
+        <v>2277.26527</v>
       </c>
       <c r="M30" s="48" t="n">
         <v>2896.89534</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>3652.343</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>72.46450999999999</v>
+        <v>65.07181</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>20137.09272</v>
+        <v>20132.85695</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>1156.91948</v>
+        <v>95.16067</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>1226.47112</v>
+        <v>208.08885</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>2905.87755</v>
+        <v>206.17701</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>8982.946179999999</v>
+        <v>252.72621</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>7557.042199999999</v>
+        <v>2713.48555</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>26986.37448</v>
+        <v>190.42736</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>5793.52469</v>
+        <v>3546.88621</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>347.70863</v>
+        <v>47.34861</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>20995.54288</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>22.57396</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>5079.388</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>63472.61975</v>
+        <v>43520.0788</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>88440.58048</v>
+        <v>75756.28337999999</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>165390.995</v>
+        <v>146617.1627</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>166022.35762</v>
+        <v>153760.33919</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>147808.42864</v>
+        <v>105334.1016</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>348087.9240300001</v>
+        <v>349541.40556</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>1370579.54257</v>
+        <v>1260007.60523</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>342222.21954</v>
+        <v>244577.49866</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>435627.08777</v>
+        <v>364175.75512</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>845051.52858</v>
+        <v>576974.9565699999</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>366231.02055</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>296591.90677</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>661629.694</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
-        <v>7.57834</v>
+        <v>0</v>
       </c>
       <c r="D33" s="48" t="n">
         <v>5.1</v>
@@ -2057,10 +2103,10 @@
         <v>3229.20507</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>2066.81736</v>
+        <v>1647.14597</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>4905.09755</v>
+        <v>4697.4539</v>
       </c>
       <c r="J33" s="48" t="n">
         <v>2142.42019</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>1836.06592</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>1768.778</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2113,116 +2164,131 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>14847.97185</v>
+        <v>10432.25561</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>22585.35878</v>
+        <v>19774.57334</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>45804.87083</v>
+        <v>20200.73016</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>41522.41868</v>
+        <v>28722.76603</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>32582.1004</v>
+        <v>21194.07049</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>55575.39865</v>
+        <v>42792.56618</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>59613.92792</v>
+        <v>50935.46105</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>89255.14161000001</v>
+        <v>75034.67124</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>106826.31119</v>
+        <v>83934.97403999999</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>70122.52344</v>
+        <v>49612.38834999999</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>85589.65359</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>72342.04134000001</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>81280.47900000001</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>75287.4825</v>
+        <v>51343.68642</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>83227.25986000001</v>
+        <v>69656.2788</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>210556.52745</v>
+        <v>174730.95014</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>118369.92748</v>
+        <v>102053.69262</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>203522.6658</v>
+        <v>148235.12635</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>378956.87757</v>
+        <v>373889.35922</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>1432814.72112</v>
+        <v>1499923.28361</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>533356.7904299999</v>
+        <v>432298.6147799999</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>643260.0622</v>
+        <v>553754.79101</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>1152080.43827</v>
+        <v>758491.07176</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>522212.1013400001</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>422490.89994</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>554246.795</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>5338.84872</v>
+        <v>5314.53118</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>2312.00589</v>
+        <v>2250.0118</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>2255.49545</v>
+        <v>2246.50562</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>7013.27308</v>
+        <v>6947.22409</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>9461.41864</v>
+        <v>9304.226720000001</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>9931.668659999999</v>
+        <v>9459.83814</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>12380.30394</v>
+        <v>12194.26536</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>11389.80307</v>
+        <v>11180.34188</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>10170.54891</v>
+        <v>9972.899240000001</v>
       </c>
       <c r="L37" s="48" t="n">
         <v>2391.16426</v>
@@ -2230,50 +2296,60 @@
       <c r="M37" s="48" t="n">
         <v>3431.69945</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="N37" s="48" t="n">
+        <v>439.047</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>5024.913439999999</v>
+        <v>4703.337060000001</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>6571.50835</v>
+        <v>6430.42675</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>7788.57139</v>
+        <v>7474.96816</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>6995.438929999999</v>
+        <v>4630.79518</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>10728.3211</v>
+        <v>9450.00497</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>12472.7556</v>
+        <v>7506.593890000001</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>13953.64354</v>
+        <v>10899.15865</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>38457.60188</v>
+        <v>32423.53488</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>39943.30431</v>
+        <v>38817.20116</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>46844.83848000001</v>
+        <v>17557.47015</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>26253.14763</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>21795.80993</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>25770.498</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>0.37445</v>
@@ -2282,79 +2358,89 @@
         <v>21.76212</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>1488.38363</v>
+        <v>1076.88823</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>130.30006</v>
+        <v>0</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>3088.29667</v>
+        <v>0</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>579.4563900000001</v>
+        <v>1.4407</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>3266.736</v>
+        <v>0</v>
       </c>
       <c r="J39" s="48" t="n">
         <v>4043.80625</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>2334.17634</v>
+        <v>0</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>33207.94882</v>
+        <v>32457.48325</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>2791.17562</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>1.17562</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>7443.169</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>60576.39903</v>
+        <v>38429.79008</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>67261.79145</v>
+        <v>55698.95954</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>174639.97459</v>
+        <v>141762.13659</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>91223.62819999999</v>
+        <v>78893.30515</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>166449.36309</v>
+        <v>117142.82785</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>327497.7858</v>
+        <v>331264.61717</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>1368206.72338</v>
+        <v>1448401.95321</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>443109.59994</v>
+        <v>361407.79861</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>552320.3661100001</v>
+        <v>475960.73364</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>1016354.86943</v>
+        <v>672901.33727</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>426806.99361</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>349255.2154</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>460722.209</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
-        <v>7.055899999999999</v>
+        <v>0</v>
       </c>
       <c r="D41" s="48" t="n">
         <v>19.36159</v>
@@ -2369,10 +2455,10 @@
         <v>386.03265</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>4049.00029</v>
+        <v>3216.5812</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>2918.10021</v>
+        <v>2295.80179</v>
       </c>
       <c r="J41" s="48" t="n">
         <v>117.3148</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>1802.56461</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>1718.387</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2417,7 +2508,7 @@
         <v>0</v>
       </c>
       <c r="K42" s="48" t="n">
-        <v>645.10119</v>
+        <v>0</v>
       </c>
       <c r="L42" s="48" t="n">
         <v>0</v>
@@ -2425,593 +2516,671 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>4339.89096</v>
+        <v>2895.65365</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>7040.83046</v>
+        <v>5235.757</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>24330.50548</v>
+        <v>22116.85463</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>12965.38592</v>
+        <v>11540.46691</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>13409.23365</v>
+        <v>11952.03416</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>24408.83536</v>
+        <v>22422.91265</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>32089.21405</v>
+        <v>26132.1046</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>36238.66449</v>
+        <v>23125.81836</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>36612.89007</v>
+        <v>27770.2817</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>51489.48948</v>
+        <v>31391.48903</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>61126.52042</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>46204.43493</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>58153.485</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>66779.33601</v>
+        <v>45416.41706</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>70507.18355</v>
+        <v>64381.42502</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>150312.30656</v>
+        <v>137768.09827</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>195506.88816</v>
+        <v>167738.27177</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>207493.94452</v>
+        <v>158645.16413</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>156085.36062</v>
+        <v>133153.99825</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>251424.81639</v>
+        <v>248714.64294</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>291831.62812</v>
+        <v>230735.63712</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>405432.14203</v>
+        <v>326143.86331</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>552257.4292100001</v>
+        <v>403453.75355</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>496673.68987</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>307705.5730499999</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>406340.293</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>59670.35563</v>
+        <v>39432.55267</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>60159.19079</v>
+        <v>55270.06838</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>83402.19313</v>
+        <v>72447.29077000001</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>87753.57141999999</v>
+        <v>63402.43653</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>162031.85676</v>
+        <v>113667.66553</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>132699.38751</v>
+        <v>100534.63816</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>235447.09868</v>
+        <v>235329.14683</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>277822.25793</v>
+        <v>226382.45224</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>385342.1713400001</v>
+        <v>321773.424</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>449298.8399</v>
+        <v>387469.1299</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>450648.44237</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>302332.82987</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>402000.798</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>7108.98038</v>
+        <v>5983.864390000001</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>10347.99276</v>
+        <v>9111.35664</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>66910.11343</v>
+        <v>65320.8075</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>107753.31674</v>
+        <v>104335.83524</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>45462.08775999999</v>
+        <v>44977.4986</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>23385.97311</v>
+        <v>32619.36009</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>15977.71771</v>
+        <v>13385.49611</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>14009.37019</v>
+        <v>4353.18488</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>20089.97069</v>
+        <v>4370.439310000001</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>102958.58931</v>
+        <v>15984.62365</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>46025.2475</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>5372.743179999999</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>4339.495</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>130220.89803</v>
+        <v>83110.33628999999</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>178867.53075</v>
+        <v>155508.47559</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>258949.21394</v>
+        <v>252756.96927</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>229747.92141</v>
+        <v>191962.23502</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>345950.73003</v>
+        <v>237854.51811</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>315973.26833</v>
+        <v>197930.07268</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>267543.88215</v>
+        <v>-10144.67843</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>383492.28581</v>
+        <v>264335.13327</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>1057117.22085</v>
+        <v>993260.6803000001</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>790755.13553</v>
+        <v>772630.92703</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>951650.86886</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>809021.8422899999</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>1366227.113</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>14816.80973</v>
+        <v>10838.72371</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>22780.48476</v>
+        <v>20516.4124</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>42329.18714</v>
+        <v>36415.26147</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>71458.95709000001</v>
+        <v>52531.36275</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>100336.0146</v>
+        <v>40426.54664</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>68309.89387999999</v>
+        <v>31063.56645</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>64603.97069</v>
+        <v>48105.47003</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>136176.07314</v>
+        <v>67688.04151</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>278431.25129</v>
+        <v>120178.40363</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>85664.79001000001</v>
+        <v>78469.40749</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>133142.94916</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>47531.96885</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>97904.26300000001</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>49.37994</v>
+        <v>47.53373</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>517.1573</v>
+        <v>466.86362</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>566.8878599999999</v>
+        <v>565.9066599999999</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>173.4687</v>
+        <v>173.05</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>241.48689</v>
+        <v>53.05786</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>3660.5786</v>
+        <v>189.71465</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>4360.729429999999</v>
+        <v>997.1795100000001</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>960.38476</v>
+        <v>840.6256599999999</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>1394.05317</v>
+        <v>429.50832</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>452.87528</v>
+        <v>239.21196</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>2036.92183</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>521.23727</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>686.39</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>14767.42979</v>
+        <v>10791.18998</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>22263.32746</v>
+        <v>20049.54878</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>41762.29928</v>
+        <v>35849.35481</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>71285.48839</v>
+        <v>52358.31275</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>100094.52771</v>
+        <v>40373.48878</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>64649.31528</v>
+        <v>30873.8518</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>60243.24126</v>
+        <v>47108.29052</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>135215.68838</v>
+        <v>66847.41585</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>277037.19812</v>
+        <v>119748.89531</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>85211.91472999999</v>
+        <v>78230.19553</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>131106.02733</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>47010.73158</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>97217.87300000001</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>21214.14924</v>
+        <v>18635.1866</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>30677.07714</v>
+        <v>25436.77166</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>80602.88527000001</v>
+        <v>66288.63866</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>53129.17393</v>
+        <v>43496.89721</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>112635.05549</v>
+        <v>62096.15093</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>95911.43393</v>
+        <v>55648.29848</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>118471.15354</v>
+        <v>96156.71664</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>140662.97169</v>
+        <v>97486.88348</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>141910.31763</v>
+        <v>97080.71071</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>181841.62857</v>
+        <v>149823.51947</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>204302.2396</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>171843.02083</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>75816.639</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>3933.86688</v>
+        <v>2938.54127</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>10690.94085</v>
+        <v>9205.707759999999</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>13270.78699</v>
+        <v>8872.628879999998</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>12387.92782</v>
+        <v>10304.04838</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>39920.24971</v>
+        <v>31154.22641</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>31707.10602</v>
+        <v>23425.747</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>44414.01799</v>
+        <v>35250.59853</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>35168.02545</v>
+        <v>25955.07142</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>52180.38939999999</v>
+        <v>46275.512</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>100631.27806</v>
+        <v>74945.15946</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>143119.64323</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>124759.22525</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>46659.624</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>3136.29629</v>
+        <v>3073.647</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>3109.83984</v>
+        <v>3064.17769</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>13477.89649</v>
+        <v>13107.9879</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>4837.26155</v>
+        <v>3521.61029</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>8668.21328</v>
+        <v>6872.1054</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>9896.148220000001</v>
+        <v>8335.999819999999</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>12425.02949</v>
+        <v>11211.75587</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>11848.28259</v>
+        <v>7711.828390000001</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>11128.16941</v>
+        <v>8714.399820000001</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>14399.29179</v>
+        <v>12888.25948</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>6869.272089999999</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>4133.66247</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>3777.792</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>14143.98607</v>
+        <v>12622.99833</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>16876.29645</v>
+        <v>13166.88621</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>53854.20179</v>
+        <v>44308.02188</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>35903.98456</v>
+        <v>29671.23854</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>64046.5925</v>
+        <v>24069.81912</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>54308.17969</v>
+        <v>23886.55166</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>61632.10606</v>
+        <v>49694.36223999999</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>93646.66365</v>
+        <v>63819.98367</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>78601.75881999999</v>
+        <v>42090.79889</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>66811.05872</v>
+        <v>61990.10053</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>54313.32428</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>42950.13311</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>25379.223</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>123823.55852</v>
+        <v>75313.87340000001</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>170970.93837</v>
+        <v>150588.11633</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>220675.51581</v>
+        <v>222883.59208</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>248077.70457</v>
+        <v>200996.70056</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>333651.68914</v>
+        <v>216184.91382</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>288371.72828</v>
+        <v>173345.34065</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>213676.6993</v>
+        <v>-58195.92504000001</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>379005.38726</v>
+        <v>234536.2913</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>1193638.15451</v>
+        <v>1016358.37322</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>694578.29697</v>
+        <v>701276.81505</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>880491.57842</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>684710.79031</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>1388314.737</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>21276.17908</v>
+        <v>16109.46424</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>31788.23361</v>
+        <v>22644.77171</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>57159.36486</v>
+        <v>51660.92703</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>53027.55615999999</v>
+        <v>41220.98987999999</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>60177.79517</v>
+        <v>44163.11944</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>55553.18879</v>
+        <v>33525.22333</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>82733.30756999999</v>
+        <v>60237.05304999999</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>110215.83841</v>
+        <v>77218.03564</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>167804.36857</v>
+        <v>148576.71802</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>118410.25245</v>
+        <v>78168.24381</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>153601.06841</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>121518.99634</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>191993.557</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>102547.37944</v>
+        <v>59204.40916</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>139182.70476</v>
+        <v>127943.34462</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>163516.15095</v>
+        <v>171222.66505</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>195050.14841</v>
+        <v>159775.71068</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>273473.89397</v>
+        <v>172021.79438</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>232818.53949</v>
+        <v>139820.11732</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>130943.39173</v>
+        <v>-118432.97809</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>268789.54885</v>
+        <v>157318.25566</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>1025833.78594</v>
+        <v>867781.6552</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>576168.04452</v>
+        <v>623108.57124</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>726890.51001</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>563191.79397</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>1196321.18</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="D59" s="35" t="n">
+        <v>33</v>
+      </c>
+      <c r="E59" s="35" t="n">
+        <v>44</v>
+      </c>
+      <c r="F59" s="35" t="n">
         <v>53</v>
       </c>
-      <c r="E59" s="35" t="n">
-        <v>68</v>
-      </c>
-      <c r="F59" s="35" t="n">
-        <v>83</v>
-      </c>
       <c r="G59" s="35" t="n">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>134</v>
+        <v>71</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>28</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>